--- a/test_data/additional-multi/additional-ro-crate-metadata.xlsx
+++ b/test_data/additional-multi/additional-ro-crate-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/source/github/Language-Research-Technology/ro-crate-excel/test_data/aditional-multi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/source/github/Language-Research-Technology/ro-crate-excel/test_data/additional-multi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5386050D-871A-7544-B075-89C3AF8FEEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FD751A-0228-BD49-9A0B-0AD92766A156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>@id</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>#Maria</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>French</t>
   </si>
 </sst>
 </file>
@@ -884,9 +890,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -924,7 +930,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1030,7 +1036,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1172,7 +1178,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2550,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2569,7 +2575,7 @@
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2597,8 +2603,17 @@
       <c r="I1" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT("#",B2)</f>
         <v>#OBJECT_Rosa</v>
@@ -2630,8 +2645,17 @@
       <c r="I2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT("#",B3)</f>
         <v>#OBJECT_Juan</v>
@@ -2663,8 +2687,17 @@
       <c r="I3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>#OBJECT_Emilia</v>
@@ -2693,8 +2726,17 @@
       <c r="I4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>#OBJECT_Maria</v>
@@ -2722,6 +2764,15 @@
       </c>
       <c r="I5" t="s">
         <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
